--- a/rough_project_plan.xlsx
+++ b/rough_project_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/GitHub/DDVVY_29/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A2B7F4-416F-FC47-9D97-C9342246D140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD10AE-4846-7C41-80DB-F452A27354F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{A92F2E9C-4FBD-564D-AE86-C5B33622B03B}"/>
   </bookViews>
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,12 +303,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -626,7 +627,7 @@
   <dimension ref="B2:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,26 +638,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
@@ -686,11 +687,11 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -831,11 +832,11 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -904,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -976,11 +977,11 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1142,11 +1143,11 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1267,54 +1268,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="B31:D31"/>
@@ -1325,6 +1278,54 @@
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
